--- a/biology/Botanique/Eucalyptus_delegatensis/Eucalyptus_delegatensis.xlsx
+++ b/biology/Botanique/Eucalyptus_delegatensis/Eucalyptus_delegatensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus delegatensis est un arbre des régions subalpines ou tempérées du sud-est de l'Australie. Arbre au tronc droit et gris, il atteint une hauteur de plus de 50 mètres dans des conditions normales. Le plus grand spécimen connu actuellement est situé en Tasmanie et atteint 87,9 m de hauteur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus delegatensis est un arbre des régions subalpines ou tempérées du sud-est de l'Australie. Arbre au tronc droit et gris, il atteint une hauteur de plus de 50 mètres dans des conditions normales. Le plus grand spécimen connu actuellement est situé en Tasmanie et atteint 87,9 m de hauteur.
 Parmi les phanérogames, seul Eucalyptus regnans est plus grand ; Eucalyptus globulus, Eucalyptus viminalis, Eucalyptus obliqua, Shorea faguetiana, Koompassia excelsa et peut-être aussi Eucalyptus nitens et Allantospermum borneense font à peu près la même taille.
 L'écorce est épaisse et fibreuse à la base, lisse sur les branches plus petites. Dans la sous-espèce de Tasmanie, l'écorce est épaisse sur tout le tronc et les grosses branches ; dans la sous-espèce continentale l'écorce rugueuse s'étend seulement à mi-hauteur du tronc.
 La sous-espèce nominale est originaire des zones montagneuses fraiches, aux sols profonds, entre 850 et 1 500 m du Victoria et de Nouvelle-Galles du Sud; E. d. tasmaniensis se trouve dans la plupart des régions d'altitude de la Tasmanie en dehors du sud-ouest.
@@ -516,9 +528,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 nov. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 nov. 2010) :
 Eucalyptus delegatensis F.Muell. ex R.T.Baker (1900)
 sous-espèce Eucalyptus delegatensis subsp. delegatensis
 sous-espèce Eucalyptus delegatensis subsp. tasmaniensis Boland (1985)</t>
